--- a/data/QC/质控组仪表盘9-1.xlsx
+++ b/data/QC/质控组仪表盘9-1.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -86,9 +86,6 @@
     <t>48h通过率标线</t>
   </si>
   <si>
-    <t>质控组</t>
-  </si>
-  <si>
     <t>总体</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   <si>
     <t>9-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京组</t>
   </si>
 </sst>
 </file>
@@ -510,7 +510,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD28"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -526,60 +526,60 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>32</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>33</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>34</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>35</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>36</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>38</v>
-      </c>
-      <c r="R1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -629,13 +629,13 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -685,13 +685,13 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <v>58</v>
@@ -741,13 +741,13 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D5">
         <v>135</v>
@@ -807,7 +807,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -885,13 +885,13 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2">
         <v>29</v>
@@ -903,13 +903,13 @@
         <v>18</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H2">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I2">
-        <v>2.0699999999999998</v>
+        <v>5.07</v>
       </c>
       <c r="J2">
         <v>3.58</v>
